--- a/biology/Médecine/Nerf_cervical/Nerf_cervical.xlsx
+++ b/biology/Médecine/Nerf_cervical/Nerf_cervical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,47 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nerfs cervicaux sont les huit paires de nerfs spinaux qui émergent de la moelle spinale au niveau des sept vertèbres cervicales. 
 Ils sont notés C1 à C8. Ils émergent au-dessus des vertèbres cervicales, à l'exception de C8 qui émerge sous la septième vertèbre cervicale. 
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Nerf_cervical</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nerf_cervical</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Territoire musculaire</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Premier nerf cervical
-Deuxième nerf cervical
-Quatrième nerf cervical
-Cinquième nerf cervical
-Sixième nerf cervical
-Septième nerf cervical
-Huitième nerf cervical</t>
         </is>
       </c>
     </row>
